--- a/shinyapp/data/allresources.xlsx
+++ b/shinyapp/data/allresources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FFA619-3860-1A49-976E-59587DD76146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A35C17B-AD0F-0E44-B779-A31360BF5BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17980" windowHeight="13980" xr2:uid="{6631D036-35ED-9745-B544-28590BDC04CD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13980" xr2:uid="{6631D036-35ED-9745-B544-28590BDC04CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="483">
   <si>
     <t>Food Pantry</t>
   </si>
@@ -894,6 +894,9 @@
     <t>21453 Epicerie Plaza, Sterling, VA 20164</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>12196 Sunset Hills Road, Reston, VA 20190</t>
   </si>
   <si>
@@ -1084,18 +1087,6 @@
   </si>
   <si>
     <t>M-F: 9:00AM - 5:00PM</t>
-  </si>
-  <si>
-    <t>Irene's Prom Closet</t>
-  </si>
-  <si>
-    <t>409 Madison Ct SE, Leesburg, VA 20175</t>
-  </si>
-  <si>
-    <t>https://www.irenespromcloset.com/</t>
-  </si>
-  <si>
-    <t>Irene' Prom Closet donates formal attire to high school girls with financial need who otherwise would not be able to attend their schools' dances, homecomings, and proms</t>
   </si>
   <si>
     <t>Drop-In Care</t>
@@ -1501,7 +1492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1600,6 +1591,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1623,7 +1632,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1649,6 +1658,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1965,41 +1977,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA2D8A2-B4EF-184E-8C74-1471D275641D}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" t="s">
         <v>471</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>472</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>473</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>474</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>475</v>
-      </c>
-      <c r="G1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2036,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2065,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -2094,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -2123,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -2152,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
@@ -2210,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -2239,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>44</v>
@@ -2268,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
@@ -2297,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>54</v>
@@ -2326,7 +2338,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>61</v>
@@ -2355,7 +2367,7 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -2384,7 +2396,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -2413,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
@@ -2442,7 +2454,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>44</v>
@@ -2471,7 +2483,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>79</v>
@@ -2500,7 +2512,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>85</v>
@@ -2529,7 +2541,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>91</v>
@@ -2558,7 +2570,7 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>97</v>
@@ -2587,7 +2599,7 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C22" t="s">
         <v>102</v>
@@ -2616,7 +2628,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
         <v>109</v>
@@ -2645,7 +2657,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C24" t="s">
         <v>113</v>
@@ -2674,7 +2686,7 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C25" t="s">
         <v>117</v>
@@ -2703,7 +2715,7 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C26" t="s">
         <v>122</v>
@@ -2732,7 +2744,7 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
@@ -2761,7 +2773,7 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
@@ -2790,7 +2802,7 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>137</v>
@@ -2819,7 +2831,7 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
@@ -2848,7 +2860,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>145</v>
@@ -2877,7 +2889,7 @@
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C32" t="s">
         <v>150</v>
@@ -2906,7 +2918,7 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>154</v>
@@ -2935,7 +2947,7 @@
         <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>158</v>
@@ -2964,7 +2976,7 @@
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>137</v>
@@ -2993,7 +3005,7 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C36" t="s">
         <v>164</v>
@@ -3022,7 +3034,7 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>168</v>
@@ -3051,7 +3063,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>174</v>
@@ -3080,7 +3092,7 @@
         <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>180</v>
@@ -3109,7 +3121,7 @@
         <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>187</v>
@@ -3138,7 +3150,7 @@
         <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>192</v>
@@ -3167,7 +3179,7 @@
         <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>197</v>
@@ -3196,7 +3208,7 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>201</v>
@@ -3225,7 +3237,7 @@
         <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>201</v>
@@ -3254,7 +3266,7 @@
         <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>211</v>
@@ -3283,7 +3295,7 @@
         <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C46" t="s">
         <v>217</v>
@@ -3312,7 +3324,7 @@
         <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C47" t="s">
         <v>222</v>
@@ -3341,7 +3353,7 @@
         <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C48" t="s">
         <v>187</v>
@@ -3370,7 +3382,7 @@
         <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C49" t="s">
         <v>228</v>
@@ -3399,7 +3411,7 @@
         <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
         <v>231</v>
@@ -3428,7 +3440,7 @@
         <v>210</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C51" t="s">
         <v>236</v>
@@ -3457,7 +3469,7 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C52" t="s">
         <v>241</v>
@@ -3486,7 +3498,7 @@
         <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C53" t="s">
         <v>246</v>
@@ -3515,7 +3527,7 @@
         <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C54" t="s">
         <v>252</v>
@@ -3544,7 +3556,7 @@
         <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>10</v>
@@ -3573,7 +3585,7 @@
         <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
         <v>259</v>
@@ -3602,7 +3614,7 @@
         <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C57" t="s">
         <v>265</v>
@@ -3631,7 +3643,7 @@
         <v>264</v>
       </c>
       <c r="B58" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
         <v>269</v>
@@ -3660,7 +3672,7 @@
         <v>264</v>
       </c>
       <c r="B59" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C59" t="s">
         <v>274</v>
@@ -3689,7 +3701,7 @@
         <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C60" t="s">
         <v>281</v>
@@ -3715,114 +3727,114 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="D61" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" t="s">
+        <v>292</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="E61" t="s">
-        <v>291</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F63" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" t="s">
         <v>300</v>
-      </c>
-      <c r="E63" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" t="s">
-        <v>292</v>
-      </c>
-      <c r="G63" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" t="s">
+        <v>298</v>
+      </c>
+      <c r="G64" t="s">
         <v>304</v>
-      </c>
-      <c r="E64" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" t="s">
-        <v>297</v>
-      </c>
-      <c r="G64" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
         <v>226</v>
@@ -3830,453 +3842,453 @@
     </row>
     <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B66" t="s">
-        <v>485</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>310</v>
-      </c>
       <c r="D66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" t="s">
         <v>313</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F66" t="s">
-        <v>315</v>
-      </c>
-      <c r="G66" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B67" t="s">
-        <v>484</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="D67" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" t="s">
         <v>319</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="F67" t="s">
-        <v>321</v>
-      </c>
-      <c r="G67" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E68" t="s">
-        <v>325</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D69" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B71" t="s">
-        <v>484</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>335</v>
-      </c>
       <c r="D71" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G71" t="s">
         <v>338</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G71" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D72" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F72" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" t="s">
         <v>342</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F72" t="s">
-        <v>344</v>
-      </c>
-      <c r="G72" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D73" t="s">
+        <v>348</v>
+      </c>
+      <c r="E73" t="s">
+        <v>349</v>
+      </c>
+      <c r="F73" t="s">
+        <v>350</v>
+      </c>
+      <c r="G73" t="s">
         <v>347</v>
       </c>
-      <c r="E73" t="s">
-        <v>348</v>
-      </c>
-      <c r="F73" t="s">
-        <v>349</v>
-      </c>
-      <c r="G73" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>336</v>
-      </c>
-      <c r="B74" t="s">
-        <v>485</v>
-      </c>
-      <c r="C74" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="A74" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74" t="s">
+        <v>355</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="E74" t="s">
-        <v>353</v>
-      </c>
-      <c r="F74" t="s">
-        <v>349</v>
-      </c>
-      <c r="G74" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E75" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="F75" t="s">
-        <v>358</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E76" t="s">
+        <v>364</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>336</v>
+    </row>
+    <row r="77" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>366</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F77" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E77" t="s">
-        <v>367</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>369</v>
-      </c>
       <c r="B78" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E78" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>369</v>
+      <c r="A79" t="s">
+        <v>366</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D79" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="D79" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E79" t="s">
+        <v>378</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G79" t="s">
         <v>376</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" t="s">
         <v>378</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>379</v>
+      </c>
+      <c r="G80" t="s">
         <v>381</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="G80" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C81" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" t="s">
         <v>383</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E81" t="s">
-        <v>381</v>
-      </c>
-      <c r="F81" t="s">
-        <v>382</v>
-      </c>
-      <c r="G81" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" t="s">
+        <v>378</v>
+      </c>
+      <c r="F82" t="s">
+        <v>379</v>
+      </c>
+      <c r="G82" t="s">
         <v>385</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E82" t="s">
-        <v>381</v>
-      </c>
-      <c r="F82" t="s">
-        <v>382</v>
-      </c>
-      <c r="G82" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
         <v>387</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>380</v>
-      </c>
       <c r="E83" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F83" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G83" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D84" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E84" t="s">
         <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G84" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E85" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G85" t="s">
         <v>393</v>
@@ -4284,240 +4296,240 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" t="s">
+        <v>388</v>
+      </c>
+      <c r="F86" t="s">
+        <v>379</v>
+      </c>
+      <c r="G86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="s">
         <v>369</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="D86" t="s">
-        <v>390</v>
-      </c>
-      <c r="E86" t="s">
-        <v>391</v>
-      </c>
-      <c r="F86" t="s">
-        <v>382</v>
-      </c>
-      <c r="G86" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>369</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="G87" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>397</v>
       </c>
-      <c r="D87" t="s">
-        <v>390</v>
-      </c>
-      <c r="E87" t="s">
-        <v>391</v>
-      </c>
-      <c r="F87" t="s">
-        <v>382</v>
-      </c>
-      <c r="G87" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
+      <c r="B88" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" t="s">
         <v>399</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>371</v>
-      </c>
       <c r="F88" t="s">
-        <v>372</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>286</v>
+        <v>191</v>
+      </c>
+      <c r="G88" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
+        <v>482</v>
+      </c>
+      <c r="C89" t="s">
         <v>400</v>
       </c>
-      <c r="B89" t="s">
-        <v>485</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" t="s">
         <v>401</v>
       </c>
-      <c r="D89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" t="s">
         <v>402</v>
-      </c>
-      <c r="F89" t="s">
-        <v>191</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G90" t="s">
-        <v>405</v>
+      <c r="G90" s="5" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B91" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D91" t="s">
+        <v>412</v>
+      </c>
+      <c r="E91" t="s">
         <v>410</v>
-      </c>
-      <c r="E91" t="s">
-        <v>408</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>409</v>
+      <c r="G91" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C92" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="E92" t="s">
         <v>413</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" t="s">
         <v>191</v>
       </c>
       <c r="G92" t="s">
-        <v>414</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C93" t="s">
-        <v>401</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>416</v>
-      </c>
-      <c r="F93" t="s">
+        <v>414</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>413</v>
+      </c>
+      <c r="B94" t="s">
+        <v>481</v>
+      </c>
+      <c r="C94" t="s">
+        <v>415</v>
+      </c>
+      <c r="D94" t="s">
+        <v>418</v>
+      </c>
+      <c r="E94" t="s">
         <v>416</v>
-      </c>
-      <c r="B94" t="s">
-        <v>485</v>
-      </c>
-      <c r="C94" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>417</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>136</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B95" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C95" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D95" t="s">
         <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G95" t="s">
-        <v>420</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B96" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C96" t="s">
         <v>422</v>
@@ -4528,117 +4540,117 @@
       <c r="E96" t="s">
         <v>423</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>191</v>
+      <c r="F96" t="s">
+        <v>215</v>
       </c>
       <c r="G96" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B97" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C97" t="s">
         <v>425</v>
       </c>
       <c r="D97" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E97" t="s">
         <v>426</v>
       </c>
-      <c r="F97" t="s">
-        <v>215</v>
+      <c r="F97" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B98" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C98" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D98" t="s">
+        <v>433</v>
+      </c>
+      <c r="E98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" t="s">
         <v>431</v>
       </c>
-      <c r="E98" t="s">
-        <v>429</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G98" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B99" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C99" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D99" t="s">
+        <v>437</v>
+      </c>
+      <c r="E99" t="s">
+        <v>435</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" t="s">
         <v>436</v>
-      </c>
-      <c r="E99" t="s">
-        <v>433</v>
-      </c>
-      <c r="F99" t="s">
-        <v>434</v>
-      </c>
-      <c r="G99" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B100" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C100" t="s">
-        <v>437</v>
-      </c>
-      <c r="D100" t="s">
+        <v>438</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>440</v>
       </c>
       <c r="E100" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G100" t="s">
-        <v>439</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B101" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s">
         <v>441</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>443</v>
+      <c r="D101" t="s">
+        <v>444</v>
       </c>
       <c r="E101" t="s">
         <v>442</v>
@@ -4647,113 +4659,113 @@
         <v>191</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B102" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C102" t="s">
-        <v>444</v>
-      </c>
-      <c r="D102" t="s">
+        <v>445</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E102" t="s">
+        <v>446</v>
+      </c>
+      <c r="F102" t="s">
         <v>447</v>
       </c>
-      <c r="E102" t="s">
-        <v>445</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>413</v>
+      </c>
+      <c r="B103" t="s">
+        <v>481</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>412</v>
+      </c>
+      <c r="E103" t="s">
+        <v>450</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G102" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>416</v>
-      </c>
-      <c r="B103" t="s">
-        <v>484</v>
-      </c>
-      <c r="C103" t="s">
-        <v>448</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="G103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>397</v>
+      </c>
+      <c r="B104" t="s">
+        <v>481</v>
+      </c>
+      <c r="C104" t="s">
+        <v>451</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E104" t="s">
         <v>452</v>
       </c>
-      <c r="E103" t="s">
-        <v>449</v>
-      </c>
-      <c r="F103" t="s">
-        <v>450</v>
-      </c>
-      <c r="G103" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>416</v>
-      </c>
-      <c r="B104" t="s">
-        <v>484</v>
-      </c>
-      <c r="C104" t="s">
-        <v>412</v>
-      </c>
-      <c r="D104" t="s">
-        <v>415</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>453</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G104" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B105" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C105" t="s">
-        <v>454</v>
-      </c>
-      <c r="D105" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D105" t="s">
         <v>458</v>
       </c>
       <c r="E105" t="s">
-        <v>455</v>
-      </c>
-      <c r="F105" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G105" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B106" t="s">
-        <v>485</v>
-      </c>
-      <c r="C106" t="s">
+        <v>482</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D106" t="s">
-        <v>461</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
         <v>460</v>
@@ -4762,122 +4774,131 @@
         <v>191</v>
       </c>
       <c r="G106" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B107" t="s">
-        <v>485</v>
-      </c>
-      <c r="C107" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C107" t="s">
+        <v>461</v>
+      </c>
+      <c r="D107" t="s">
+        <v>463</v>
+      </c>
+      <c r="E107" t="s">
         <v>462</v>
       </c>
-      <c r="D107" t="s">
-        <v>123</v>
-      </c>
-      <c r="E107" t="s">
-        <v>463</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>191</v>
+      <c r="F107" t="s">
+        <v>215</v>
       </c>
       <c r="G107" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C108" t="s">
         <v>464</v>
       </c>
       <c r="D108" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E108" t="s">
         <v>465</v>
       </c>
-      <c r="F108" t="s">
-        <v>215</v>
+      <c r="F108" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="B109" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C109" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D109" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E109" t="s">
-        <v>468</v>
-      </c>
-      <c r="F109" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G109" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>479</v>
-      </c>
-      <c r="B110" t="s">
-        <v>484</v>
-      </c>
-      <c r="C110" t="s">
         <v>480</v>
       </c>
-      <c r="D110" t="s">
-        <v>481</v>
-      </c>
-      <c r="E110" t="s">
-        <v>482</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G110" t="s">
-        <v>483</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="H109" t="s">
         <v>4</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I109" s="4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="110" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="E110" s="20"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="E111" s="21"/>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="G115" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{81F2081A-DDE7-A54B-8549-4B8E7B45B985}"/>
     <hyperlink ref="D47" r:id="rId2" xr:uid="{310ECFCA-7D46-2347-95DB-67DDCDFDF925}"/>
     <hyperlink ref="G60" r:id="rId3" xr:uid="{F6E682D0-68DB-9247-9B92-E4DF1A6F19D4}"/>
-    <hyperlink ref="D80" r:id="rId4" display="http://www.loudoun.gov/casa" xr:uid="{8557B8F0-6AEF-D045-AB56-80467CC17A03}"/>
-    <hyperlink ref="D81" r:id="rId5" display="http://www.loudoun.gov/casa" xr:uid="{5C8B3DDC-5C5D-C741-A31B-5B52D94BA279}"/>
-    <hyperlink ref="D82" r:id="rId6" display="http://www.loudoun.gov/casa" xr:uid="{DB63A77C-B4B8-5540-A054-E88704CFE816}"/>
-    <hyperlink ref="D83" r:id="rId7" display="http://www.loudoun.gov/casa" xr:uid="{62D11B23-0623-8A44-BF70-F58D4F7845E2}"/>
+    <hyperlink ref="D79" r:id="rId4" display="http://www.loudoun.gov/casa" xr:uid="{8557B8F0-6AEF-D045-AB56-80467CC17A03}"/>
+    <hyperlink ref="D80" r:id="rId5" display="http://www.loudoun.gov/casa" xr:uid="{5C8B3DDC-5C5D-C741-A31B-5B52D94BA279}"/>
+    <hyperlink ref="D81" r:id="rId6" display="http://www.loudoun.gov/casa" xr:uid="{DB63A77C-B4B8-5540-A054-E88704CFE816}"/>
+    <hyperlink ref="D82" r:id="rId7" display="http://www.loudoun.gov/casa" xr:uid="{62D11B23-0623-8A44-BF70-F58D4F7845E2}"/>
     <hyperlink ref="D72" r:id="rId8" xr:uid="{904C7E02-CF92-294B-9C5E-28DBBC89E26C}"/>
     <hyperlink ref="D65" r:id="rId9" xr:uid="{AC747DC8-B130-6E4C-8FF0-9220285856AB}"/>
     <hyperlink ref="D69" r:id="rId10" xr:uid="{4EF01B24-B295-234A-9753-6341F8BF97DD}"/>
-    <hyperlink ref="G91" r:id="rId11" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{ED89CAC8-6795-3741-8134-EABB35264B9E}"/>
-    <hyperlink ref="C107" r:id="rId12" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{E5CAA4E6-7BAF-0A4B-9FBB-90428AA2515A}"/>
-    <hyperlink ref="D105" r:id="rId13" xr:uid="{796DE0FD-6098-E140-B76E-FA12F6E27451}"/>
+    <hyperlink ref="G90" r:id="rId11" display="https://www.google.com/maps/?q=3026+Javier+Road,+Fairfax,+VA+22031/" xr:uid="{ED89CAC8-6795-3741-8134-EABB35264B9E}"/>
+    <hyperlink ref="C106" r:id="rId12" display="https://www.findhelp.org/provider/center-for-adoption-support-and-education%252C-inc.-%2528c.a.s.e.%2529--bethesda-md/5703197953097728?postal=20163" xr:uid="{E5CAA4E6-7BAF-0A4B-9FBB-90428AA2515A}"/>
+    <hyperlink ref="D104" r:id="rId13" xr:uid="{796DE0FD-6098-E140-B76E-FA12F6E27451}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
